--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Vtn-Itgb3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Vtn</t>
+  </si>
+  <si>
+    <t>Itgb3</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Vtn</t>
-  </si>
-  <si>
-    <t>Itgb3</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.75206033333333</v>
+        <v>7.844453333333334</v>
       </c>
       <c r="H2">
-        <v>38.256181</v>
+        <v>23.53336</v>
       </c>
       <c r="I2">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659587</v>
       </c>
       <c r="J2">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659588</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N2">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P2">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q2">
-        <v>48.18288209381966</v>
+        <v>20.38119455407111</v>
       </c>
       <c r="R2">
-        <v>433.645938844377</v>
+        <v>183.43075098664</v>
       </c>
       <c r="S2">
-        <v>0.06690444536974423</v>
+        <v>0.05161901078879015</v>
       </c>
       <c r="T2">
-        <v>0.06690444536974423</v>
+        <v>0.05161901078879016</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.75206033333333</v>
+        <v>7.844453333333334</v>
       </c>
       <c r="H3">
-        <v>38.256181</v>
+        <v>23.53336</v>
       </c>
       <c r="I3">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659587</v>
       </c>
       <c r="J3">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659588</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,28 +617,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N3">
         <v>13.00021</v>
       </c>
       <c r="O3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P3">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q3">
-        <v>55.25982075533445</v>
+        <v>33.99318022284444</v>
       </c>
       <c r="R3">
-        <v>497.33838679801</v>
+        <v>305.9386220056</v>
       </c>
       <c r="S3">
-        <v>0.07673114388774506</v>
+        <v>0.0860937925896889</v>
       </c>
       <c r="T3">
-        <v>0.07673114388774506</v>
+        <v>0.08609379258968891</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,10 +646,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.75206033333333</v>
+        <v>7.844453333333334</v>
       </c>
       <c r="H4">
-        <v>38.256181</v>
+        <v>23.53336</v>
       </c>
       <c r="I4">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659587</v>
       </c>
       <c r="J4">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659588</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N4">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O4">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P4">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q4">
-        <v>6.13890985545511</v>
+        <v>3.680651496631111</v>
       </c>
       <c r="R4">
-        <v>55.25018869909599</v>
+        <v>33.12586346968001</v>
       </c>
       <c r="S4">
-        <v>0.008524196586130808</v>
+        <v>0.009321906466783981</v>
       </c>
       <c r="T4">
-        <v>0.00852419658613081</v>
+        <v>0.009321906466783983</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,14 +708,14 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
         <v>3</v>
       </c>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>12.75206033333333</v>
+        <v>7.844453333333334</v>
       </c>
       <c r="H5">
-        <v>38.256181</v>
+        <v>23.53336</v>
       </c>
       <c r="I5">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659587</v>
       </c>
       <c r="J5">
-        <v>0.157312234338196</v>
+        <v>0.1489290605659588</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N5">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P5">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q5">
-        <v>3.710662526781777</v>
+        <v>0.7479633956977778</v>
       </c>
       <c r="R5">
-        <v>33.39596274103599</v>
+        <v>6.73167056128</v>
       </c>
       <c r="S5">
-        <v>0.005152448494575885</v>
+        <v>0.001894350720695691</v>
       </c>
       <c r="T5">
-        <v>0.005152448494575885</v>
+        <v>0.001894350720695691</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>20.35396833333333</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H6">
-        <v>61.061905</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I6">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="J6">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N6">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P6">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q6">
-        <v>76.90622775543166</v>
+        <v>52.88299527339946</v>
       </c>
       <c r="R6">
-        <v>692.156049798885</v>
+        <v>475.9469574605951</v>
       </c>
       <c r="S6">
-        <v>0.106788309247204</v>
+        <v>0.1339356187547838</v>
       </c>
       <c r="T6">
-        <v>0.106788309247204</v>
+        <v>0.1339356187547838</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>20.35396833333333</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H7">
-        <v>61.061905</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I7">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="J7">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -865,28 +865,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N7">
         <v>13.00021</v>
       </c>
       <c r="O7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P7">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q7">
-        <v>88.20195422222778</v>
+        <v>88.2019542222278</v>
       </c>
       <c r="R7">
         <v>793.81758800005</v>
       </c>
       <c r="S7">
-        <v>0.1224730147166237</v>
+        <v>0.2233871824593381</v>
       </c>
       <c r="T7">
-        <v>0.1224730147166237</v>
+        <v>0.2233871824593381</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>20.35396833333333</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H8">
-        <v>61.061905</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I8">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="J8">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N8">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O8">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P8">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q8">
-        <v>9.798508910164442</v>
+        <v>9.550170142529447</v>
       </c>
       <c r="R8">
-        <v>88.18658019147999</v>
+        <v>85.95153128276502</v>
       </c>
       <c r="S8">
-        <v>0.01360574078587833</v>
+        <v>0.0241875094373965</v>
       </c>
       <c r="T8">
-        <v>0.01360574078587833</v>
+        <v>0.0241875094373965</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,14 +956,14 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
-      </c>
       <c r="E9">
         <v>3</v>
       </c>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>20.35396833333333</v>
+        <v>20.35396833333334</v>
       </c>
       <c r="H9">
-        <v>61.061905</v>
+        <v>61.06190500000001</v>
       </c>
       <c r="I9">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="J9">
-        <v>0.2510910513649195</v>
+        <v>0.3864255740794268</v>
       </c>
       <c r="K9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N9">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P9">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q9">
-        <v>5.92270626013111</v>
+        <v>1.940737311271111</v>
       </c>
       <c r="R9">
-        <v>53.30435634118</v>
+        <v>17.46663580144</v>
       </c>
       <c r="S9">
-        <v>0.008223986615213516</v>
+        <v>0.004915263427908376</v>
       </c>
       <c r="T9">
-        <v>0.008223986615213516</v>
+        <v>0.004915263427908375</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>47.951367</v>
+        <v>24.47399366666667</v>
       </c>
       <c r="H10">
-        <v>143.854101</v>
+        <v>73.421981</v>
       </c>
       <c r="I10">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="J10">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.778439</v>
+        <v>2.598166333333333</v>
       </c>
       <c r="N10">
-        <v>11.335317</v>
+        <v>7.794499</v>
       </c>
       <c r="O10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="P10">
-        <v>0.4252971528324392</v>
+        <v>0.3466013321552429</v>
       </c>
       <c r="Q10">
-        <v>181.181315176113</v>
+        <v>63.58750638694656</v>
       </c>
       <c r="R10">
-        <v>1630.631836585017</v>
+        <v>572.287557482519</v>
       </c>
       <c r="S10">
-        <v>0.2515797079057152</v>
+        <v>0.1610467026116689</v>
       </c>
       <c r="T10">
-        <v>0.2515797079057152</v>
+        <v>0.161046702611669</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>47.951367</v>
+        <v>24.47399366666667</v>
       </c>
       <c r="H11">
-        <v>143.854101</v>
+        <v>73.421981</v>
       </c>
       <c r="I11">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="J11">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1113,28 +1113,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.333403333333334</v>
+        <v>4.333403333333333</v>
       </c>
       <c r="N11">
         <v>13.00021</v>
       </c>
       <c r="O11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="P11">
-        <v>0.4877633593505859</v>
+        <v>0.5780859172985858</v>
       </c>
       <c r="Q11">
-        <v>207.7926135956901</v>
+        <v>106.0556857351122</v>
       </c>
       <c r="R11">
-        <v>1870.13352236121</v>
+        <v>954.50117161601</v>
       </c>
       <c r="S11">
-        <v>0.2885308840072984</v>
+        <v>0.2686049422495589</v>
       </c>
       <c r="T11">
-        <v>0.2885308840072984</v>
+        <v>0.2686049422495589</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,10 +1142,10 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>47.951367</v>
+        <v>24.47399366666667</v>
       </c>
       <c r="H12">
-        <v>143.854101</v>
+        <v>73.421981</v>
       </c>
       <c r="I12">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="J12">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.4814053333333333</v>
+        <v>0.4692043333333333</v>
       </c>
       <c r="N12">
-        <v>1.444216</v>
+        <v>1.407613</v>
       </c>
       <c r="O12">
-        <v>0.0541864822020464</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="P12">
-        <v>0.05418648220204641</v>
+        <v>0.06259293136852516</v>
       </c>
       <c r="Q12">
-        <v>23.084043814424</v>
+        <v>11.48330388237256</v>
       </c>
       <c r="R12">
-        <v>207.756394329816</v>
+        <v>103.349734941353</v>
       </c>
       <c r="S12">
-        <v>0.03205339907412914</v>
+        <v>0.02908351546434468</v>
       </c>
       <c r="T12">
-        <v>0.03205339907412914</v>
+        <v>0.02908351546434468</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,14 +1204,14 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
         <v>3</v>
       </c>
@@ -1219,294 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>47.951367</v>
+        <v>24.47399366666667</v>
       </c>
       <c r="H13">
-        <v>143.854101</v>
+        <v>73.421981</v>
       </c>
       <c r="I13">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="J13">
-        <v>0.5915386600409098</v>
+        <v>0.4646453653546145</v>
       </c>
       <c r="K13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.2909853333333333</v>
+        <v>0.09534933333333333</v>
       </c>
       <c r="N13">
-        <v>0.872956</v>
+        <v>0.286048</v>
       </c>
       <c r="O13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764605</v>
       </c>
       <c r="P13">
-        <v>0.03275300561492853</v>
+        <v>0.01271981917764604</v>
       </c>
       <c r="Q13">
-        <v>13.953144510284</v>
+        <v>2.333578980120889</v>
       </c>
       <c r="R13">
-        <v>125.578300592556</v>
+        <v>21.002210821088</v>
       </c>
       <c r="S13">
-        <v>0.01937466905376722</v>
+        <v>0.005910205029041979</v>
       </c>
       <c r="T13">
-        <v>0.01937466905376722</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G14">
-        <v>0.004706</v>
-      </c>
-      <c r="H14">
-        <v>0.014118</v>
-      </c>
-      <c r="I14">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="J14">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>3.778439</v>
-      </c>
-      <c r="N14">
-        <v>11.335317</v>
-      </c>
-      <c r="O14">
-        <v>0.4252971528324392</v>
-      </c>
-      <c r="P14">
-        <v>0.4252971528324392</v>
-      </c>
-      <c r="Q14">
-        <v>0.017781333934</v>
-      </c>
-      <c r="R14">
-        <v>0.160032005406</v>
-      </c>
-      <c r="S14">
-        <v>2.469030977582548E-05</v>
-      </c>
-      <c r="T14">
-        <v>2.469030977582548E-05</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G15">
-        <v>0.004706</v>
-      </c>
-      <c r="H15">
-        <v>0.014118</v>
-      </c>
-      <c r="I15">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="J15">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>4.333403333333334</v>
-      </c>
-      <c r="N15">
-        <v>13.00021</v>
-      </c>
-      <c r="O15">
-        <v>0.4877633593505859</v>
-      </c>
-      <c r="P15">
-        <v>0.4877633593505859</v>
-      </c>
-      <c r="Q15">
-        <v>0.02039299608666667</v>
-      </c>
-      <c r="R15">
-        <v>0.18353696478</v>
-      </c>
-      <c r="S15">
-        <v>2.83167389187955E-05</v>
-      </c>
-      <c r="T15">
-        <v>2.83167389187955E-05</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G16">
-        <v>0.004706</v>
-      </c>
-      <c r="H16">
-        <v>0.014118</v>
-      </c>
-      <c r="I16">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="J16">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.4814053333333333</v>
-      </c>
-      <c r="N16">
-        <v>1.444216</v>
-      </c>
-      <c r="O16">
-        <v>0.0541864822020464</v>
-      </c>
-      <c r="P16">
-        <v>0.05418648220204641</v>
-      </c>
-      <c r="Q16">
-        <v>0.002265493498666666</v>
-      </c>
-      <c r="R16">
-        <v>0.020389441488</v>
-      </c>
-      <c r="S16">
-        <v>3.145755908123573E-06</v>
-      </c>
-      <c r="T16">
-        <v>3.145755908123573E-06</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>0.004706</v>
-      </c>
-      <c r="H17">
-        <v>0.014118</v>
-      </c>
-      <c r="I17">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="J17">
-        <v>5.805425597465285E-05</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.2909853333333333</v>
-      </c>
-      <c r="N17">
-        <v>0.872956</v>
-      </c>
-      <c r="O17">
-        <v>0.03275300561492853</v>
-      </c>
-      <c r="P17">
-        <v>0.03275300561492853</v>
-      </c>
-      <c r="Q17">
-        <v>0.001369376978666667</v>
-      </c>
-      <c r="R17">
-        <v>0.012324392808</v>
-      </c>
-      <c r="S17">
-        <v>1.901451371908303E-06</v>
-      </c>
-      <c r="T17">
-        <v>1.901451371908303E-06</v>
+        <v>0.005910205029041979</v>
       </c>
     </row>
   </sheetData>
